--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2199781.307386463</v>
+        <v>-2201778.980399307</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.8261016702171</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>134.5203983239685</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>125.3363843732644</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>275.1024007326841</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>48.03644161695777</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>145.6468451236205</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>58.03776529495414</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>94.65568569260671</v>
       </c>
       <c r="X7" t="n">
-        <v>173.637167941063</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>138.3038958997682</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>81.60475593481398</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,7 +1187,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>55.57563911642483</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>55.84003136202615</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896919</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>60.83722086777434</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1576,10 +1576,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>209.7629556623152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>165.126967495413</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>280.395183307267</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,10 +1901,10 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>132.6781274168075</v>
+        <v>240.9219788910201</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151922</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>25.58923446922705</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2476,25 +2476,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E25" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G25" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S25" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T25" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U25" t="n">
-        <v>218.1054622689365</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V25" t="n">
         <v>184.0057531941873</v>
@@ -2713,25 +2713,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898755</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E28" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T28" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287484</v>
       </c>
       <c r="U28" t="n">
         <v>218.1054622689367</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3004,7 +3004,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V31" t="n">
         <v>184.0057531941873</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463127</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,19 +3241,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T37" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689361</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378954</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T40" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689375</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3952,7 +3952,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689363</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941873</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4189,7 +4189,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1822.620392413681</v>
+        <v>1335.58524627281</v>
       </c>
       <c r="C2" t="n">
-        <v>1453.65787547327</v>
+        <v>1335.58524627281</v>
       </c>
       <c r="D2" t="n">
-        <v>1095.392176866519</v>
+        <v>977.3195476660592</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>591.5312950678149</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>180.5453902782073</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>180.5453902782073</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>180.5453902782073</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278601</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X2" t="n">
-        <v>2289.351746278601</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y2" t="n">
-        <v>1899.21241430279</v>
+        <v>1722.185086336931</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,19 +4413,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U4" t="n">
-        <v>450.2477713451374</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="V4" t="n">
-        <v>450.2477713451374</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="W4" t="n">
-        <v>450.2477713451374</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="X4" t="n">
-        <v>450.2477713451374</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>450.2477713451374</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1137.701990660436</v>
+        <v>512.2786438284563</v>
       </c>
       <c r="C5" t="n">
-        <v>1137.701990660436</v>
+        <v>512.2786438284563</v>
       </c>
       <c r="D5" t="n">
-        <v>779.436292053686</v>
+        <v>512.2786438284563</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>126.4903912302121</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2267.209817970484</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1914.44116270037</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1914.44116270037</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y5" t="n">
-        <v>1524.301830724558</v>
+        <v>898.8784838925781</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204941</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406182</v>
+        <v>632.5171804765284</v>
       </c>
       <c r="X7" t="n">
-        <v>404.5912469122717</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5912469122717</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2247.308246834948</v>
+        <v>1288.509552617345</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>919.5470356769335</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>561.2813370701831</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>561.2813370701831</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>150.2954322805755</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>136.3720282191665</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>136.3720282191665</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X8" t="n">
-        <v>2247.308246834948</v>
+        <v>1675.109392681467</v>
       </c>
       <c r="Y8" t="n">
-        <v>2247.308246834948</v>
+        <v>1675.109392681467</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4887,43 +4887,43 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>279.3468541648867</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C10" t="n">
-        <v>279.3468541648867</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="D10" t="n">
-        <v>279.3468541648867</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="E10" t="n">
-        <v>279.3468541648867</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="F10" t="n">
-        <v>279.3468541648867</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>110.3470539032191</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4993,19 +4993,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.3468541648867</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>994.3109288932103</v>
+        <v>736.1461909267684</v>
       </c>
       <c r="C13" t="n">
-        <v>825.3747459653034</v>
+        <v>567.2100079988616</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2581065529677</v>
+        <v>417.0933685865258</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705745</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V13" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W13" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X13" t="n">
-        <v>1387.841167119728</v>
+        <v>736.1461909267684</v>
       </c>
       <c r="Y13" t="n">
-        <v>1175.95939372345</v>
+        <v>736.1461909267684</v>
       </c>
     </row>
     <row r="14">
@@ -5255,46 +5255,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>638.3691419079765</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881928</v>
+        <v>674.9958217162123</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1332.121353895869</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1332.121353895869</v>
       </c>
       <c r="U16" t="n">
-        <v>991.90339746128</v>
+        <v>1332.121353895869</v>
       </c>
       <c r="V16" t="n">
-        <v>737.2189092553931</v>
+        <v>1077.436865689982</v>
       </c>
       <c r="W16" t="n">
-        <v>447.8017392184324</v>
+        <v>1077.436865689982</v>
       </c>
       <c r="X16" t="n">
-        <v>447.8017392184324</v>
+        <v>1077.436865689982</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.8017392184324</v>
+        <v>856.644286546452</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5507,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5516,13 +5516,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5540,16 +5540,16 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>2787.503716928088</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>3094.823850208049</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>3899.2354284722</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>245.130185042679</v>
+        <v>542.438140992646</v>
       </c>
       <c r="C19" t="n">
-        <v>245.130185042679</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>1164.977949951427</v>
+        <v>831.8553110296066</v>
       </c>
       <c r="W19" t="n">
-        <v>875.5607799144661</v>
+        <v>542.438140992646</v>
       </c>
       <c r="X19" t="n">
-        <v>647.5712290164488</v>
+        <v>542.438140992646</v>
       </c>
       <c r="Y19" t="n">
-        <v>426.7786498729187</v>
+        <v>542.438140992646</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822457</v>
@@ -5753,7 +5753,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5832,22 +5832,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L21" t="n">
-        <v>901.6749225845923</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864554</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1538.857683528587</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2208.321444831246</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5911,10 +5911,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471194</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>1361.993455534651</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>1361.993455534651</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>1361.993455534651</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
     </row>
     <row r="23">
@@ -5978,34 +5978,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6075,13 +6075,13 @@
         <v>796.3635653766202</v>
       </c>
       <c r="M24" t="n">
-        <v>1564.731711769082</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N24" t="n">
-        <v>1894.594339433114</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O24" t="n">
-        <v>2174.134404651812</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G25" t="n">
         <v>221.5295092103129</v>
@@ -6148,7 +6148,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K25" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L25" t="n">
         <v>709.8489468649691</v>
@@ -6187,10 +6187,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028562</v>
@@ -6303,22 +6303,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D28" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G28" t="n">
         <v>221.5295092103129</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="29">
@@ -6440,10 +6440,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,16 +6452,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6479,13 +6479,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>709.4934589365143</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D31" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F31" t="n">
         <v>320.8847398504512</v>
@@ -6616,13 +6616,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L31" t="n">
         <v>709.8489468649691</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,19 +6710,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6838,7 +6838,7 @@
         <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083207</v>
@@ -6889,7 +6889,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6914,52 +6914,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M36" t="n">
-        <v>1332.091733170013</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7184,10 +7184,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899128</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045204</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="41">
@@ -7400,22 +7400,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7564,7 +7564,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,10 +7801,10 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,7 +7837,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>306.1147370139962</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>104.874910276575</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>15.83804904622787</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,10 +9480,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>96.03744927814625</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>124.3400780863221</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9723,16 +9723,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="P24" t="n">
-        <v>158.8724419039333</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,13 +9963,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>96.03744927814711</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>124.3400780863229</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10832,13 +10832,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>306.9077399932635</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>273.7028353330255</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>26.59493187159681</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,31 +22702,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22753,16 +22753,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>11.17947350929364</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>85.59674177879484</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23479,10 +23479,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.82169768977954</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>32.79384248819028</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>5.842169091310382</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23941,22 +23941,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>119.4595159070205</v>
+        <v>11.21566443280793</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338511</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>226.548408854601</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -26314,19 +26314,19 @@
         <v>18391.92434782022</v>
       </c>
       <c r="C2" t="n">
+        <v>20526.04424660707</v>
+      </c>
+      <c r="D2" t="n">
         <v>20526.04424660708</v>
       </c>
-      <c r="D2" t="n">
-        <v>20526.04424660709</v>
-      </c>
       <c r="E2" t="n">
-        <v>19551.45298688543</v>
+        <v>19551.45298688544</v>
       </c>
       <c r="F2" t="n">
+        <v>19551.45298688545</v>
+      </c>
+      <c r="G2" t="n">
         <v>19551.45298688544</v>
-      </c>
-      <c r="G2" t="n">
-        <v>19551.45298688543</v>
       </c>
       <c r="H2" t="n">
         <v>19551.45298688544</v>
@@ -26338,22 +26338,22 @@
         <v>20526.04424660711</v>
       </c>
       <c r="K2" t="n">
+        <v>20526.04424660708</v>
+      </c>
+      <c r="L2" t="n">
         <v>20526.04424660709</v>
-      </c>
-      <c r="L2" t="n">
-        <v>20526.0442466071</v>
       </c>
       <c r="M2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="N2" t="n">
+        <v>20526.0442466071</v>
+      </c>
+      <c r="O2" t="n">
+        <v>20526.0442466071</v>
+      </c>
+      <c r="P2" t="n">
         <v>20526.04424660709</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20526.04424660709</v>
-      </c>
-      <c r="P2" t="n">
-        <v>20526.0442466071</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371256</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26399,7 +26399,7 @@
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>54505.51210371259</v>
+        <v>54505.51210371256</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108051.5433095248</v>
+        <v>108051.5433095249</v>
       </c>
       <c r="C4" t="n">
         <v>156774.9582512226</v>
@@ -26430,7 +26430,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26439,16 +26439,16 @@
         <v>37464.45686275959</v>
       </c>
       <c r="J4" t="n">
+        <v>37464.45686275957</v>
+      </c>
+      <c r="K4" t="n">
+        <v>37464.45686275957</v>
+      </c>
+      <c r="L4" t="n">
+        <v>37464.45686275958</v>
+      </c>
+      <c r="M4" t="n">
         <v>37464.45686275959</v>
-      </c>
-      <c r="K4" t="n">
-        <v>37464.45686275959</v>
-      </c>
-      <c r="L4" t="n">
-        <v>37464.45686275957</v>
-      </c>
-      <c r="M4" t="n">
-        <v>37464.45686275957</v>
       </c>
       <c r="N4" t="n">
         <v>37464.45686275959</v>
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26494,13 +26494,13 @@
         <v>97715.10582002539</v>
       </c>
       <c r="K5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="L5" t="n">
-        <v>97715.10582002539</v>
-      </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-762486.5762396586</v>
+        <v>-762699.9882295371</v>
       </c>
       <c r="C6" t="n">
         <v>-219107.992068025</v>
@@ -26528,19 +26528,19 @@
         <v>-219107.992068025</v>
       </c>
       <c r="E6" t="n">
-        <v>-612641.5790601665</v>
+        <v>-612739.0381861386</v>
       </c>
       <c r="F6" t="n">
-        <v>-87481.54258327029</v>
+        <v>-87579.00170924244</v>
       </c>
       <c r="G6" t="n">
-        <v>-87481.54258327029</v>
+        <v>-87579.0017092425</v>
       </c>
       <c r="H6" t="n">
-        <v>-87481.54258327029</v>
+        <v>-87579.00170924244</v>
       </c>
       <c r="I6" t="n">
-        <v>-169159.0305398904</v>
+        <v>-169159.0305398905</v>
       </c>
       <c r="J6" t="n">
         <v>-291076.7376287708</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="J2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="K2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="J2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="K2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="L2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,16 +26744,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26765,7 +26765,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26774,7 +26774,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>247.4099717482933</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>140.0813346877695</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>177.6732137720794</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,13 +27619,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>236.2835249486413</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>348.8382804467573</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>191.8673126439843</v>
       </c>
       <c r="X7" t="n">
-        <v>52.07248744797414</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>226.9689958712394</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>70.32656031004727</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>93.03983390178752</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>100.330857479769</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32233,40 +32233,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32306,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32318,7 +32318,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32327,10 +32327,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32406,7 +32406,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,10 +32418,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32482,13 +32482,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32503,7 +32503,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32558,7 +32558,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813463</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,10 +32619,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32631,10 +32631,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32643,7 +32643,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,13 +32655,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,10 +35027,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35495,19 +35495,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>616.5391140644624</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>354.1326152325993</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>265.0957540022521</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36048,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36130,19 +36130,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594837</v>
+        <v>345.2951542341706</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>331.4334930178469</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>588.4784392551043</v>
       </c>
       <c r="P24" t="n">
-        <v>365.9658568354579</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>88.0130327850741</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K25" t="n">
         <v>219.8343186595512</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36683,13 +36683,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>481.9867828282178</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>425.9753597058697</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36923,13 +36923,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -36999,7 +36999,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O31" t="n">
         <v>304.3692416502435</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,10 +37236,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37318,7 +37318,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37552,13 +37552,13 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38035,7 +38035,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
         <v>59.82538970349808</v>
@@ -38096,7 +38096,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38111,7 +38111,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
